--- a/va_facility_data_2025-02-20/Lewistown VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Lewistown%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Lewistown VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Lewistown%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R9215acd61d6c457e8e5a3442d541dc96"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R0f3a663397554ff2b16c1a040e833ab0"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R1e4e4104d52c460e913007471cfeeb53"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rb2fee133e09543928c5fd70b6f9b422e"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R940112d9e5ec408e895d412471f2d987"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Raae49514985240679ce5147de756ab17"/>
   </x:sheets>
 </x:workbook>
 </file>
